--- a/HistoriasUsuarios.xlsx
+++ b/HistoriasUsuarios.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Documents\Personal\Proyectos\PlataformaSalud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E5F18E-A4B8-4731-81AC-C13BC6991AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8D8EEC-A1E0-40D2-81F3-9950B84EC484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1CF48710-ECC5-4A3A-8413-C56A2552069A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{1CF48710-ECC5-4A3A-8413-C56A2552069A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="HISTORIAS DE USUARIO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="194">
   <si>
     <t>Historias de usuarios</t>
   </si>
@@ -101,9 +102,6 @@
     <t>consulta y edicion de permisos</t>
   </si>
   <si>
-    <t>Creacion de rol</t>
-  </si>
-  <si>
     <t>consulta y edicion de rol</t>
   </si>
   <si>
@@ -128,18 +126,12 @@
     <t>Reporte de usuarios con su rol y su especialidad o cargo</t>
   </si>
   <si>
-    <t>reporte de especialidades o cargos</t>
-  </si>
-  <si>
     <t>Creacion de departamentos</t>
   </si>
   <si>
     <t>Consulta y edicion de departamentos</t>
   </si>
   <si>
-    <t>Reporte de departamentos</t>
-  </si>
-  <si>
     <t>Creacion de ciudad</t>
   </si>
   <si>
@@ -314,29 +306,1692 @@
     <t xml:space="preserve">Reporte de ordenes medicas por evento </t>
   </si>
   <si>
-    <t>El administrador del sistema mediante el formulario creado en el frontend debe enviar cada uno de los permisos que pueda dar lugar el sistema, esta informacion llega al Backend donde es procesada y almacenada en la base de datos, una vez registrados los datos el Backend envia un mensaje indicando que el registro fue grabado satisfactoriamente, de lo contrario enviara un mensaje de error indicando la falla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario al ingresar a la opcion de consulta de permisos, el sistema debera validar que el usuario que esta solicitando el listado de permisos tenga permitido acceder a esta opcion, una vez realizada la validacion el sistema permitira acceder al listado si tiene el perfil de esta consulta, de lo contrario el sistema enviara un mensaje indicado que no tiene el perfil para realizar la consulta, si es permitido, el sistema mostrara por pantalla el listado de permisos creados en el sistema, cuando se tenga el listado de permisos se dispondra un boton de edicion que abrira un formulario donde se cargue la informacion del permiso para ser editada si es el caso, cuando se terminen de editar las opciones que den lugar en el registro el usuario podra enviar la informacion a actualizada mediante un boton de update, este transmitira al backend dicha informacion para ser almacenada en la base de datos y el sistema contestara con un mensaje de actualizacion satisfactoria, de lo contrario el sistema informara mediante un mensaje que el registro no se actualizo por la falla que diera lugar al evento  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario administrador del sistema accedera a la opcion de creacion de roles donde se desplegara un formulario de creacion solicitando la informacion correspondiente al rol que se esta creando, una vez diligenciado la informacion, esta se enviar al backend mediante un boton de guardar dispuesto en el formulario, de esta forma el backend recibe la informacion y la procesa para almacenarla en la base de datos, si el proceso es exitoso el backend enviara al frontend un mensaje de almacenamiento exitoso el cual sera mostrado al usuario, si el proceso falla de igual forma se informara mediante un mensaje el cual contenga el motivo que ocaciono la falla en el proces </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario al ingresar a la opcion de consulta de roles, el sistema debera validar que el usuario que esta solicitando el listado de roles creado tenga permitido acceder a esta opcion, una vez realizada la validacion el sistema permitira acceder al listado si tiene el perfil de esta consulta, de lo contrario el sistema enviara un mensaje indicado que no tiene el perfil para realizar la consulta, si es permitido, el sistema mostrara por pantalla el listado de roles creados en el sistema, cuando se tenga el listado de roles se dispondra un boton de edicion que abrira un formulario donde se cargue la informacion del rol para ser editada si es el caso, cuando se terminen de editar las opciones que den lugar en el registro el usuario podra enviar la informacion  actualizada mediante un boton de update, este transmitira al backend dicha informacion para ser almacenada en la base de datos y el sistema contestara con un mensaje de actualizacion satisfactoria, de lo contrario el sistema informara mediante un mensaje que el registro no se actualizo por la falla que diera lugar al evento  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario administrador del sistema accedera a la opcion de creacion de permisos por rol donde se desplegara un formulario de creacion solicitando la informacion correspondiente para crear, una vez diligenciada la informacion, esta se enviar al backend mediante un boton de guardar dispuesto en el formulario, de esta forma el backend recibe la informacion y la procesa para almacenarla en la base de datos, si el proceso es exitoso el backend enviara al frontend un mensaje de almacenamiento exitoso el cual sera mostrado al usuario, si el proceso falla de igual forma se informara mediante un mensaje el cual contenga el motivo que ocaciono la falla en el proces </t>
-  </si>
-  <si>
     <t xml:space="preserve">El usuario al ingresar a la opcion de consulta de permisos por roles, el sistema debera validar que el usuario que esta solicitando el listado de permisos por roles creado tenga permitido acceder a esta opcion, una vez realizada la validacion el sistema permitira acceder al listado si tiene el perfil de esta consulta, de lo contrario el sistema enviara un mensaje indicado que no tiene el perfil para realizar la consulta, si es permitido, el sistema mostrara por pantalla el listado de permisos por roles creados en el sistema, cuando se tenga el listado de roles se dispondra un boton de edicion que abrira un formulario donde se cargue la informacion del rol para ser editada si es el caso, cuando se terminen de editar las opciones que den lugar en el registro el usuario podra enviar la informacion  actualizada mediante un boton de update, este transmitira al backend dicha informacion para ser almacenada en la base de datos y el sistema contestara con un mensaje de actualizacion satisfactoria, de lo contrario el sistema informara mediante un mensaje que el registro no se actualizo por la falla que diera lugar al evento  </t>
+  </si>
+  <si>
+    <t>que parametros debe enviar????? a q endpoint??? por q metodo??? afecta 1 pmuchas tablas???</t>
+  </si>
+  <si>
+    <t>se debe definir si los permisos se validan desde el front y no desde el back.... el front deberia ajustarse automaticamente a los permisos q trae elusr autenticado, es decir si no tiene permisos de edicion, no deberia ver la opcion de editar, con eso es un proceso q eliminamos del back por ende su rendimiento sera mejorado.. si se crea un endpoint para la consulta, q parametros debera filtrar, debe ser paginado? cuantos registros por paginas?, que parametros recibe y por q metodo los recibe, al igual que el endpoint de edicion de permisos, a donde apunta el front, como es la estructura de la informacion de edicion, por donde pasa el id del del permiso a editar??? post?get? put?............ yo abriria esta en 2 hu distintas una apra cada actividad</t>
+  </si>
+  <si>
+    <t>como se puede validar los permisos desde el frontend sin consultarlos al backend que es donde esta la informacion almacenada</t>
+  </si>
+  <si>
+    <t>Ingreso del usuario al sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al usuario que esta logeado en el sistema, el frontend mediante los datos de sesion debe validar si el perfil tiene habilitado la consulta y edicion de roles, si en la validacion, el usuario puede realizar esta actividad en el menu de parametrizacion se le visualizara la opcion de consulta y edicion de roles, donde mediante un formulario enviara por metodo get los datos de consulta que son id del rol o nombre del rol, estos datos son enviados al backend por medio del endpoint http://localhost:8080/api/rol, la consulta es procesada y si los datos de consulta se encuentran en la base de datos respondera al frontend con el listado consultado, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+En el caso que el backend de respuesta un listado de permisos, estos se mostraran en el backen con el correspondiente boton de edicion, al dar click en este objeto, se desplegara el formulario con los campos  e informacion del perfil seleccionado donde se podra realizar los cambios necesarios que diera lugar, luego mediante el boton de actualizar el formulario enviara los datos editados al endpoint http://localhost:8080/api/rol mediante el metodo put dicha informacion para ser procesada en el backend donde se realizara el proceso de almacenado en la base de datos, si el proceso es correcto el backen enviara el mensaje de exito, de lo contrario informara mediante un mensaje el origen de la falla </t>
+  </si>
+  <si>
+    <t>Al usuario que esta logeado en el sistema, el frontend mediante los datos de sesion debe validar si el perfil tiene habilitado la creacion de permisos por rol, si el perfil lo permite el usuario mediante el formulario creado en el frontend  capturara el id del permiso por rol, nombre, descripcion, fecha de creacion y estado del rol, los cual  deben ser enviadas por metodo post al endpoint http://localhost:8080/api/rol del  backend , es alli donde esta informacion es procesada y almacenada en la tabla de permisos de la base de datos, una vez registrados los datos el Backend envia un mensaje indicando que el registro fue grabado satisfactoriamente en la tabla rol, de lo contrario enviara un mensaje de error indicando la falla.</t>
+  </si>
+  <si>
+    <t>seria mejor llamarlo perfil ???</t>
+  </si>
+  <si>
+    <t>Al usuario que esta logeado en el sistema, el frontend mediante los datos de sesion debe validar si el perfil tiene habilitado la creacion de especialidades o cargos, si el perfil lo permite el usuario mediante el formulario creado en el frontend  capturara el id especialidad, nombre, detallel, fecha de creacion y estado de la especialidad, los cual  deben ser enviadas por metodo post al endpoint http://localhost:8080/api/especialidades del  backend , es alli donde esta informacion es procesada y almacenada en la tabla especialidades de la base de datos, una vez registrados los datos el Backend envia un mensaje indicando que el registro fue grabado satisfactoriamente en la tabla especialidades, de lo contrario enviara un mensaje de error indicando la falla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al usuario que esta logeado en el sistema, el frontend mediante los datos de sesion debe validar si el perfil tiene habilitado la consulta y edicion de roles, si en la validacion, el usuario puede realizar esta actividad en el menu de parametrizacion se le visualizara la opcion de consulta y edicion de especialidades o cargos, donde mediante un formulario enviara por metodo get los datos de consulta que son id de la especialidad o el nombre, estos datos son enviados al backend por medio del endpoint http://localhost:8080/api/especialidades, la consulta es procesada y si los datos de consulta se encuentran en la base de datos respondera al frontend con el listado consultado, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+En el caso que el backend de respuesta un listado de especialidades o cargos, estos se mostraran en el backen con el correspondiente boton de edicion, al dar click en este objeto, se desplegara el formulario con los campos  e informacion del registro seleccionado donde se podra realizar los cambios necesarios que diera lugar, luego mediante el boton de actualizar el formulario enviara los datos editados al endpoint http://localhost:8080/api/especialidades mediante el metodo put dicha informacion para ser procesada en el backend donde se realizara el proceso de almacenado en la base de datos, si el proceso es correcto el backen enviara el mensaje de exito, de lo contrario informara mediante un mensaje el origen de la falla </t>
+  </si>
+  <si>
+    <t>Al usuario que esta logeado en el sistema, el frontend mediante los datos de sesion debe validar si el perfil tiene habilitado la creacion de usuarios, si el perfil lo permite el usuario debe consultar si el usuario existe mediante un formulario de busqueda por documento del usuario, esta consulta es enviada al backend mediante el metodo get en el endpoint http://localhost:8080/api/usuarios/{docuser}, donde realizara la busqueda y si el usuario ya existe devolvera toda la informacion de la consulta, si no existe el usuario habilitara respondera al frontend para que habilite el formulario de registro desde donde se  capturara el idusuario, username,password,typedocuser,docuser,nombres, apellidos,registrotarusuario,firma, createdateuser,statususer, seleccionara de una lista la especialidad o cargo y el perfil, estos datos son enviados por metodo post al endpoint http://localhost:8080/api/usuario del  backend , es alli donde esta informacion es procesada y almacenada en la tabla usuarios de la base de datos, una vez registrados los datos el Backend envia un mensaje indicando que el registro fue grabado satisfactoriamente, de lo contrario enviara un mensaje de error indicando la falla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al usuario que esta logeado en el sistema, el frontend mediante los datos de sesion debe validar si el perfil tiene habilitado la consulta y edicion de usuarios, si en la validacion, el usuario puede realizar esta actividad en el menu de parametrizacion se le visualizara la opcion de consulta y edicion de usuarios, donde mediante un formulario enviara por metodo get los datos de consulta que son docuser o username, estos datos son enviados al backend por medio del endpoint http://localhost:8080/api/usuarios, la consulta es procesada y si los datos de consulta se encuentran en la base de datos respondera al frontend con el listado consultado, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+En el caso que el backend de respuesta con el detalle del usuario consultado, estos se mostraran en el backen con el correspondiente boton de edicion, al dar click en este objeto, se desplegara el formulario con los campos  e informacion del registro seleccionado donde se podra realizar los cambios necesarios que diera lugar, luego mediante el boton de actualizar el formulario enviara los datos editados al endpoint http://localhost:8080/api/especialidades mediante el metodo put dicha informacion para ser procesada en el backend donde se realizara el proceso de almacenado en la base de datos, si el proceso es correcto el backen enviara el mensaje de exito, de lo contrario informara mediante un mensaje el origen de la falla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al usuario que esta logeado en el sistema, el frontend mediante los datos de sesion debe validar si el perfil tiene habilitado la consulta de usuarios con su rol y especialidad, si en la validacion, el usuario puede realizar esta actividad en el menu de parametrizacion se le visualizara la opcion de reporte de usuarios con su rol y especialidad, donde mediante un formulario con diferentes filtros como fecha de creacion, filtro de cargo o especialidades o filtro de roles enviara por metodo get los datos de consulta seleccionados en los filtros, estos datos son enviados al backend por medio del endpoint http://localhost:8080/api/usuarios, la consulta es procesada y si los datos de consulta se encuentran en la base de datos respondera al frontend con el listado consultado, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+</t>
+  </si>
+  <si>
+    <t>Al usuario que esta logeado en el sistema, el frontend mediante los datos de sesion debe validar si el perfil tiene habilitado la creacion de departamentos, si el perfil lo permite el usuario mediante el formulario creado en el frontend  capturara el iddepartamento, nomdepartamento, los cual  deben ser enviadas por metodo post al endpoint http://localhost:8080/api/departamentos del  backend , es alli donde esta informacion es procesada y almacenada en la tabla de departamentos de la base de datos, una vez registrados los datos el Backend envia un mensaje indicando que el registro fue grabado satisfactoriamente, de lo contrario enviara un mensaje de error indicando la falla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al usuario que esta logeado en el sistema, el frontend mediante los datos de sesion debe validar si el perfil tiene habilitado la consulta y edicion de departamentos, si en la validacion, el usuario puede realizar esta actividad en el menu de parametrizacion se le visualizara la opcion de consulta y edicion de departamentos, donde mediante un formulario enviara por metodo get los datos de consulta que son nomdepartamento, estos datos son enviados al backend por medio del endpoint http://localhost:8080/api/departamento, la consulta es procesada y si los datos de consulta se encuentran en la base de datos respondera al frontend con el listado consultado, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+En el caso que el backend de respuesta con el detalle del usuario consultado, estos se mostraran en el backen con el correspondiente boton de edicion, al dar click en este objeto, se desplegara el formulario con los campos  e informacion del registro seleccionado donde se podra realizar los cambios necesarios que diera lugar, luego mediante el boton de actualizar el formulario enviara los datos editados al endpoint http://localhost:8080/api/departamentos mediante el metodo put dicha informacion para ser procesada en el backend donde se realizara el proceso de almacenado en la base de datos, si el proceso es correcto el backen enviara el mensaje de exito, de lo contrario informara mediante un mensaje el origen de la falla </t>
+  </si>
+  <si>
+    <t>Al usuario que esta logeado en el sistema, el frontend mediante los datos de sesion debe validar si el perfil tiene habilitado la creacion de ciudades, si el perfil lo permite el usuario mediante el formulario creado en el frontend  capturara el idciudad, nomciudad y en un campo de lista seleccionara el departamento al que pertenece la ciudad, estos datos deben ser enviadas por metodo post al endpoint http://localhost:8080/api/ciudad del  backend , es alli donde esta informacion es procesada y almacenada en la tabla de ciudad de la base de datos, una vez registrados los datos el Backend envia un mensaje indicando que el registro fue grabado satisfactoriamente, de lo contrario enviara un mensaje de error indicando la falla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al usuario que esta logeado en el sistema, el frontend mediante los datos de sesion debe validar si el perfil tiene habilitado la consulta y edicion de ciudades, si en la validacion, el usuario puede realizar esta actividad en el menu de parametrizacion se le visualizara la opcion de consulta y edicion de ciudades, donde mediante un formulario enviara por metodo get los datos de consulta que son nomciudad, estos datos son enviados al backend por medio del endpoint http://localhost:8080/api/ciudad, la consulta es procesada y si los datos de consulta se encuentran en la base de datos respondera al frontend con el listado consultado, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+En el caso que el backend de respuesta con el detalle dela ciudad consultada, estos se mostraran en el backen con el correspondiente boton de edicion, al dar click en este objeto, se desplegara el formulario con los campos  e informacion del registro seleccionado donde se podra realizar los cambios necesarios que diera lugar, luego mediante el boton de actualizar el formulario enviara los datos editados al endpoint http://localhost:8080/api/ciudad mediante el metodo put dicha informacion para ser procesada en el backend donde se realizara el proceso de almacenado en la base de datos, si el proceso es correcto el backen enviara el mensaje de exito, de lo contrario informara mediante un mensaje el origen de la falla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema backend recibe mediante el endpoint http://localhost:8080/api/usuarios, los datos de conexion como el username y el password del usuario, el sistema validara que el usuario exista y que el password sea el correspondiente, una vez realizada las validaciones correspondientes el backend realizara la generacion del token de conexion con los datos de inicio de sesion, permisos y perfil y generara el mensaje de inicio de sesion exitoso, si el usuario no fue encontrado enviara un mensaje de error indicando la falla por la cual no se realiza el inicio de sesion </t>
+  </si>
+  <si>
+    <t>El sistema recibira por metodo post el id del permiso, nombre del permiso, descripcion, fecha de creacion y estado del permiso, por medio del endpoint http://localhost:8080/api/permisos, esta informacion  es procesada y almacenada en la tabla de permisos de la base de datos, una vez registrados los datos el Backend envia un mensaje indicando que el registro fue grabado satisfactoriamente, de lo contrario enviara un mensaje de error indicando la falla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El backend recibe por metodo get los datos de consulta  id del permiso o nombre del permiso, estos datos son recibidos desde el endpoint http://localhost:8080/api/permisos, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+si el backend da respuesta de la consulta, los datos seran mostrados y editados segun la necesidad, una vez editados mediante el metodo put estos datos seran procesados para ser almacenados en la base de datos en la tabla permisos enviando un mensaje de almacenamiento exitosos, de lo contrario informara mediante un mensaje la falla por la cual no fue exitoso el proceso </t>
+  </si>
+  <si>
+    <t>El backend recibe por metodo post</t>
+  </si>
+  <si>
+    <t>Creacion de profile</t>
+  </si>
+  <si>
+    <t>creacion de la IPS en el sistema</t>
+  </si>
+  <si>
+    <t>Creacion de roles para usuarios</t>
+  </si>
+  <si>
+    <t>Consulta y edicion de roles para usuarios</t>
+  </si>
+  <si>
+    <t>creacion de permisos para usuarios</t>
+  </si>
+  <si>
+    <t>Consulta y edicion de permisos para usuarios</t>
+  </si>
+  <si>
+    <t>Consulta y edicion de usuarios en el sistema</t>
+  </si>
+  <si>
+    <t>Ingreso de usuarios al sistema</t>
+  </si>
+  <si>
+    <t>Consulta y edicion de pacientes en el sistema</t>
+  </si>
+  <si>
+    <t>Creacion de pacientes en el sistema</t>
+  </si>
+  <si>
+    <t>Creacion de ubicación de pacientes</t>
+  </si>
+  <si>
+    <t>Consulta y edicion de ubicación de pacientes</t>
+  </si>
+  <si>
+    <t>Traslado de pacientes</t>
+  </si>
+  <si>
+    <t>consulta de traslado de pacientes</t>
+  </si>
+  <si>
+    <t>Creacion de cargos o especialidades</t>
+  </si>
+  <si>
+    <t>Consulta de IPS</t>
+  </si>
+  <si>
+    <t>Edicion de datos de IPS</t>
+  </si>
+  <si>
+    <t>Consulta de cargos y especialidades</t>
+  </si>
+  <si>
+    <t>Edicion de cargos y especialidades</t>
+  </si>
+  <si>
+    <t>creacion de tablas del sistema</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Creacion de Departamentos</t>
+  </si>
+  <si>
+    <t>Consulta y edicion de Departamentos</t>
+  </si>
+  <si>
+    <t>Creacion de ciudades</t>
+  </si>
+  <si>
+    <t>Consulta y edicion de ciudades</t>
+  </si>
+  <si>
+    <t>creacion de usuarios</t>
+  </si>
+  <si>
+    <t>Creacion Diagnosticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/especialidades y por metodo post los datos correspondientes para la creacion de las especialidades que lleven a cabo actividades en la empresa prestadora de servicios, estos datos son almacenados en la tabla especialidades , los datos  que recibe son: 
+long idespecialidades
+String especialidad
+String estado
+</t>
+  </si>
+  <si>
+    <t>El backend recibe por metodo get los datos de consulta como son idespecialidades o especialidades, estos datos son recibidos desde el endpoint http://localhost:4200/api/especialidades, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+si el backend da respuesta de la consulta, los datos seran mostrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El backend recibe por metodo get los datos de consulta  idespecialidad o especialidad, estos datos son recibidos desde el endpoint http://localhost:4200/api/especialidad, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+si el backend da respuesta de la consulta, los datos seran mostrados y editados segun la necesidad, una vez editados mediante el metodo put estos datos seran procesados para ser almacenados en la base de datos en la tabla especialidades enviando un mensaje de almacenamiento exitosos, de lo contrario informara mediante un mensaje la falla por la cual no fue exitoso el proceso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/rol y por metodo post los datos correspondientes para la creacion de los roles para los usuarios que acceden al sistema, estos datos son almacenados en la tabla rol , los datos  que recibe son: 
+long idrol
+String nomrol
+String descrol
+String estado
+</t>
+  </si>
+  <si>
+    <t>El backend recibe por metodo get los datos de consulta como son idrol o nomrol, estos datos son recibidos desde el endpoint http://localhost:4200/api/rol, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/permiso y por metodo post los datos correspondientes para la creacion de los permisos que se pueden asignar a un rol, como pueden ser edita o grabar, estos datos son almacenados en la tabla permisos , los datos  que recibe son: 
+long idpermiso
+String nompermiso
+String descpermiso
+String estado
+</t>
+  </si>
+  <si>
+    <t>El backend recibe por metodo get los datos de consulta como son idpermiso o nompermiso, estos datos son recibidos desde el endpoint http://localhost:4200/api/permiso, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la base de datos</t>
+  </si>
+  <si>
+    <t>El backend recibe de parte del endpoint http://localhost:4200/api/departamento y por metodo post los datos correspondientes para la creacion de los departamentos que nos serviran para la ubicacion geografica de los pacientes,los datos almacenados en la tabla departamento son: 
+Long coddep
+String departamento;</t>
+  </si>
+  <si>
+    <t>El backend recibe por metodo get los datos de consulta como son coddep o departamento, estos datos son recibidos desde el endpoint http://localhost:4200/api/departamento, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la base de datos</t>
+  </si>
+  <si>
+    <t>El backend recibe de parte del endpoint http://localhost:4200/api/ciudad y por metodo post los datos correspondientes para la creacion de las ciudades que hacer parte de los departamentos que nos serviran para la ubicacion geografica de los pacientes,los datos almacenados en la tabla departamento son:
+en la tabla ciudad 
+Long codciudad
+String nomciudad
+y de la tabla departamento traera el listado de departamentos por medio de la foreing key
+String coddep;</t>
+  </si>
+  <si>
+    <t>El backend recibe de parte del endpoint http://localhost:4200/api/usuarios y por metodo post los datos correspondientes para la creacion de los usuarios que accederan al sistema,  estos datos son almacenados en la tabla usuarios , los datos  que recibe son: 
+Long idusuario
+String username;
+String password;
+String typiduser;
+Long docuser;
+String nameuser
+String lastnameuser;
+String tarjprofuser;
+String emailuser;
+Date creatdateuser;
+Long idpermisoporrol
+Long idespecialidad
+String firma;
+Boolean habilitado;</t>
+  </si>
+  <si>
+    <t>Consulta y edicion de Diagnosticos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/diagnosticos  y por metodo post los datos correspondientes para la creacion de los diagnosticos necesarios para los pacientes que son atendidos en la IPS, estos datos son almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y los datos que va a recibir son:
+String iddx;
+String nomdx;
+String descdx;
+String estdx;// El estado puede ser: activo o inactivo
+Long sexdx; // en el sexo puede ser 1. masculino, 2. femenino, 3. Ambos
+long edadmindx;
+long edadmaxdx;
+String capdx;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe por metodo get los datos de consulta como son </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iddx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nomdx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, estos datos son recibidos desde el endpoint http://localhost:4200/api/diagnosticos, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe por metodo get los datos de consulta como son el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, este dato es recibidos desde el endpoint http://localhost:4200/api/usuarios, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">usuarios </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/pacientes y por metodo post los datos correspondientes para la creacion de los pacientes que van a recibir servicios de parte de la IPS,  estos datos son almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pacientes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de la base de datos, los datos  que recibe son: 
+Long numdocpac;
+String tipodoc;
+String primernompac;
+String segundonompac;
+String primerapepac;
+String segundoapepac;
+String sexopac;
+LocalDate fechanacpac;
+Long edadpac;
+String estadocivilpac;
+String direccionpac;
+String emailpac;
+String contactopac;
+String acudientepac;
+String contactoacudientepac;
+Date fechacreacionpac;
+String estado;
+Adicionalmente la tabla de pacientes requiere para completar la informacion consultar a otras tablas como son:
+Ciudad ciudad;
+TipoPaciente tipac;
+Entidad entidad;
+Boolean habilitado;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe por metodo get los datos de consulta como son el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">numdocpac </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>primernompac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>primerapepac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, este dato es recibidos desde el endpoint http://localhost:4200/api/pacientes, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pacientes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <t>Creacion de tipo de usuarios</t>
+  </si>
+  <si>
+    <t>Consulta y edicion de tipos de usuarios</t>
+  </si>
+  <si>
+    <t>Este proceso permite la creacion de las ubicaciones que puede tener un paciente durante la atencion en la IPS, para tal efecto el backend recibe de parte del endpoint http://localhost:4200/api/ubicaciones y por metodo post los datos correspondientes para la creacion de la ubicacion, los datos se almacenan en la tabla ubicaciones y los datos almacenados son:
+long idubicaciones;
+String nomubicaciones;
+String estado;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe por metodo get los datos de consulta como son </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idubicaciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nomubicaciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, estos datos son recibidos desde el endpoint http://localhost:4200/api/ubicaciones, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Una vez se raliza la creacion del paciente en el sistema, se debe realizar la creacion del evento que genera la atencion del paciente y es sobre este evento donde se desplegaran todos los servicios que reciba el paciente en la atencion, para este proceso el backend recibe de parte del endpoint http://localhost:4200/api/eventos y por metodo post los datos correspondientes para la creacion del evento los cuales seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eventpac, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">datos almacenados en la tabla son:
+long ideventpac, este dato es el contador de los eventos de cada paciente, es decir, un paciente puede tener muchos eventos
+Date fechainieventpac;
+String moteventpac;
+String estado;
+Ademas este proceso debe ser asignado a el paciente, por tal razon tambien realizara la consulta del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numdocpac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a la tabla de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pacientes.
+En este proceso no se realizara la captura del dato fechafineventpac; ya que este pertenece a otro proceso.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Para complementar el proceso de creacion del evento, se debe realizar la asignacion de la ubicacion del paciente mediante el evento, para esto el backend mediante metodo post recibe del endpoint  http://localhost:4200/api/ubicaeventos los datos correspondientes para la asignacion de la ubicacion, los datos se almacenan en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ubievent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y los datos almacenados son:
+Long idubieventpac;
+Ubicacion ubicacion
+Evento evento;
+String estado;</t>
+    </r>
+  </si>
+  <si>
+    <t>Asignacion de ubicación del evento</t>
+  </si>
+  <si>
+    <t>Cierre de ubicación de evento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe por metodo get los datos de consulta como son </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idubieventpac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, estos datos son recibidos desde el endpoint http://localhost:4200/api/ubicaeventos, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, la cual se procede a registrar los datos de Date </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fechafinubieventpac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; y mediante metodo put actualiza la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ubievent</t>
+    </r>
+  </si>
+  <si>
+    <t>Registro historia clinica medica</t>
+  </si>
+  <si>
+    <t>Listado de pacientes activos</t>
+  </si>
+  <si>
+    <t>El backend recibe por metodo get la consulta completa de todos los pacientes que se encuentran activos con sus correspondiente evento activo y ubicacion , estos datos son recibidos desde el endpoint http://localhost:4200/api/pacientesparaatender dando como resultado el listado de la consulta realizada</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/hcpac y por metodo post los datos correspondientes para el registro de la historia clinica medica, estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hcpac, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datos almacenados en la tabla son:
+long idhcpac;
+long pesohcpac;
+long estaturahcpac;
+long imchcpac;
+String fchcpac;
+String frhcpac;
+String temphcpac;
+String tahcpac;
+String motconshcpac;
+String enfacthcpac;
+String antpathcpac;
+String antqxhcpac;
+String antalerhcpac;
+String antfarmhcpac;
+String anttoxihcpac;
+String antfamyhcpac;
+String objhcpac;
+String analisishcpac;
+String repexahcpac;
+String planmanejhcpac;
+Usuario medico;
+Evento eventohcpac;
+String estado;</t>
+    </r>
+  </si>
+  <si>
+    <t>Registro DiagnosticosHC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Este proceso permite el registro de los diagnosticos que se identificaron en la historia clinica, para tal efecto el Backend recibe del endpoint http://localhost:4200/api/diagnosticoshc y por metodo post los datos correspondientes para el registro, los datos se almacenan en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diagnosticoshc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  y los datos almacenados son:
+long iddxhc;
+long idhistoriaclinica
+String tipodxhc
+String iddiagnosticos</t>
+    </r>
+  </si>
+  <si>
+    <t>Registro evoluciones</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/evoluciones y por metodo post los datos correspondientes para la creacion de cada una de las evoluciones a las que diera lugar el servicio que se le este presentando al paciente, estos datps se almacenan en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">evoluciones, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datos almacenados en la tabla son:
+Long idevolucion
+String tipevolucion, este dato nos indicara si es una evolucion medica o de enfermeria
+string tapac
+long tempac
+long fcpac
+long frpac
+String detevoenf
+Date fechaevoenf
+Usuarios idusuario
+Evento idevento</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Consulta y edicion de historia clínica</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe por metodo get los datos de consulta como son </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idhcpac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numdocpac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, estos datos son recibidos desde el endpoint http://localhost:4200/api/hcpac, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hcpac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <t>Consulta y edicion de registro de evoluciones</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/evoluciones y por metodo get los datos correspondientes para la consulta de la evolucion que se necesita consultar como son :
+Usuarios idusuario
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evoluciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la base de datos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Registro de Signos Vitales</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/signosvitales y por metodo post los datos correspondiente a la toma de signos vitales, estos datoss se almacenan en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sigvithcpac, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datos almacenados en la tabla son:
+Long idregsigvit
+Date fechatomasigvit
+Date horatomasigvit
+String ta
+Long fc
+Long fr
+Long temp
+Long sat
+Evento idevent
+Usuario Idusuario</t>
+    </r>
+  </si>
+  <si>
+    <t>Consulta y edicion de signos vitales</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/signosvitales y por metodo get los datos numdocpac correspondientes para la consulta del registro de signos vitales que se necesita consultar, 
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sigvithcpac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la base de datos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Creacion de tipo de examenes y procedimientos</t>
+  </si>
+  <si>
+    <t>Consulta y edicion de examenes y procedimientos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/tipospr
+ocedimientosyexamenes y por metodo post los datos para la creacion de examenes y procedimientos que realice la IPS, estos datos se almacenan en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tproc, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">datos almacenados en la tabla son:
+long idtproc;
+String nomtproc; Los tipos de procedimientos pueden ser:
+	 1. quirurgicos
+	 2. Laboratorio
+	 3. Ecografias
+	 4. Rx
+	 5. procedimientos no invasivos
+String estado;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/tiposprocedimientosyexamenes y por metodo get el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idtproc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nomproc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para procesar la consulta, una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tproc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <t>creacion de examenes y procedimientos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/procexam y por metodo post los datos correspondientes para la creacion de examenes y procedimientos que realiza la IPS, estos datos son almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">procexam, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">los datos que almacena son los siguientes:
+String codprocexam;
+String nomprocexam;
+String sexoprocexam;
+String estado;
+TipoProcedimiento tprocexam;
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Consulta y edicion de tipos de anestesia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe por metodo get los datos de consulta como son el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codprocexam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nomprocexa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , estos datos son recibidos desde el endpoint http://localhost:4200/api/procexam, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">procexam </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/tipoanestesias y por metodo post los datos correspondientes para los diferentes tipos de anestesia que maneja la IPS en la realizacion de los procedimientos, estos datos son almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tipanest, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">los datos que almacena son los siguientes:
+long idtipanest;
+String nomtipanest;
+String desctipanest;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe por metodo get los datos de consulta como son el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idtipanest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nomtipanest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , estos datos son recibidos desde el endpoint http://localhost:4200/api/procexam, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tipanest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe por metodo get los datos de consulta como son el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idtemp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nomtemp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , estos datos son recibidos desde el endpoint http://localhost:4200/api/plantillas, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">template </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/plantillas y por metodo post los datos necesarios para la creacion de plantillas que podran ser incorporadas en los difierentes formatos, estos datos son almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">template, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">los datos que almacena son los siguientes:
+long idtemp;
+String nomtemp;
+String desctemp;
+String tiptemp;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe de parte del endpoint http://localhost:4200/api/descripcionquirurgica y por metodo post los datos necesarios para la creacion de la descripcion quirurgica , estos datos son almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">desqx, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>los datos que almacena son los siguientes:
+long idqx;
+Date fechaprocqx;
+Date horainicioprocqx;
+Date horafinprocqx;
+String tipoherida;
+String descqx;
+String muespato;
+String complicqx;
+String hallaqx;
+String conducqx;  la conducta puede ser, hospitalizar, observacion, o salida
+Evento eventqx;
+ProcedimientosExamenes qx;
+TipoAnestesia anestesia;
+Adicionalmente es necesario crear el equipo de trabajo que interviene en el procedimiento, este equipo se crea mediante le endpoint http://localhost:4200/api/eqqx y por metodo post procesa los datos del equipo de trabajo como son:
+Long ideqqx;
+String tipinteqqx;
+Desqx iddxqx;
+Usuarios iduser;</t>
+    </r>
+  </si>
+  <si>
+    <t>Consulta y edicion de descripcion quirurgica</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El backend recibe por metodo get los datos de consulta como son el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nomdoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idqx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , estos datos son recibidos desde el endpoint http://localhost:4200/api/descripcionquirurgica, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+una vez tengamos la respuesta de la consulta y si es necesario el usuario podra realizar la edicion de los datos consultados y por metodo put estos datos seran almacenados en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tipanest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de la base de datos</t>
+    </r>
+  </si>
+  <si>
+    <t>creacion de representantes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se debe poner a disposicion un endpoint en la siguiente ruta http://localhost:8080/api/ips la cual afectara la base de datos realizando una insercion en la tabla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prestadorservicios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, los datos  que recibe son:
+	nombreprestadorservicio
+	numidprest
+	direccionprestadorservicio
+	telefonoprestadorservicio
+	emailprestserv	
+typedoc_id(fk)
+codciu_id(fk)
+status_id(fk)
+Esta informacion debe ir en un json en el body, este endpoint puede dar respuesta al siguiente tipo de perfil: 
+Superadmin
+Administrador</t>
+    </r>
+  </si>
+  <si>
+    <t>El backend recibe por metodo get los datos de consulta como son idprestadorservicio o nombreprestadorservicio, estos datos son recibidos al endpoint http://localhost:8080/api/ips, la consulta es procesada y si los datos de consulta se encuentran en la base de datos mostrara la respuesta de la consulta, de lo contrario enviara un mensaje indicando el estado de la consulta con su respectivo codigo de respuesta.
+si el backend da respuesta de la consulta sera mostrada por medio de un json con la siguiente estructura
+[
+    {
+        "id": 1,
+        "nombre": "nombre1",
+        "direccion": "direcciontest",
+        "typedocument": "nit",
+        "document": 10258744,
+        "phone": 312417485,
+        "ciudad": "ibague",
+        "status": "activo",
+        "representantas": [
+            {
+                "id": 213,
+                "nombre": "julio salcedo",
+                "direccion": "asdasdas"
+            },
+            {
+                "id": 214,
+                "nombre": "julio salcedo",
+                "direccion": "asdasdas"
+            }
+        ]
+    }
+]</t>
+  </si>
+  <si>
+    <t>El backend recibe por metodo put  el json con los datos de la tabla prestadorservicios, en el endpoint http://localhost:8080/api/ips, una vez recibido el json se debe validar que ningun campo este en blanco, si cumple con esta validacion se actualizara o realizara el update en la tabla y se dara respuesta al front mediante un json informando el resultado de la operacion, si no cumple con la validacion debe informar mediante un json la razon por la cual no se realizo la instruccion.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,13 +2014,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -395,7 +2091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -413,12 +2109,54 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,18 +2473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68436CCE-E5AE-4BE5-A413-59E293AE238D}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="73.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="69.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -754,18 +2492,18 @@
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -788,857 +2526,2019 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>88</v>
+    <row r="3" spans="1:7" ht="110.25">
+      <c r="A3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:7" ht="94.5">
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+    <row r="5" spans="1:7" ht="173.25">
+      <c r="A5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>91</v>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>92</v>
+    <row r="7" spans="1:7" ht="267.75">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:7" ht="141.75">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3"/>
+    <row r="9" spans="1:7" ht="204.75">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:7" ht="157.5">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="1:7" ht="299.25">
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="1:7" ht="236.25">
+      <c r="A12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
+    <row r="13" spans="1:7" ht="283.5">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
+    <row r="14" spans="1:7" ht="189">
+      <c r="A14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
+    <row r="15" spans="1:7" ht="126">
+      <c r="A15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="7"/>
+    <row r="16" spans="1:7" ht="299.25">
+      <c r="A16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="7"/>
+    <row r="17" spans="1:7" ht="141.75">
+      <c r="A17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="7"/>
+    <row r="18" spans="1:7" ht="283.5">
+      <c r="A18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>31</v>
+    <row r="19" spans="1:7" ht="15.75">
+      <c r="A19" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>74</v>
+    <row r="26" spans="1:7" ht="15.75">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="150">
       <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="375">
       <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>34</v>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
+      <c r="A29" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="375" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.75">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="7"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="7"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="7"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="7"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="7"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="7"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="7"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="7"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="7"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="7"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="7"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.75">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="7"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.75">
       <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75">
+      <c r="A53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75">
+      <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="7"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.75">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.75">
       <c r="A56" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="7"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15.75">
       <c r="A57" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="7"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15.75">
       <c r="A58" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="7"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15.75">
       <c r="A59" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="7"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.75">
       <c r="A60" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.75">
       <c r="A61" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
+      <c r="C61" s="6"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.75">
       <c r="A62" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="7"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.75">
       <c r="A63" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="7"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15.75">
       <c r="A64" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15.75">
       <c r="A65" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="7"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15.75">
       <c r="A66" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="7"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15.75">
       <c r="A67" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="7"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="7"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15.75">
       <c r="A69" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" s="4"/>
-      <c r="C69" s="7"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15.75">
       <c r="A70" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B70" s="4"/>
-      <c r="C70" s="7"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15.75">
       <c r="A71" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="7"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15.75">
       <c r="A72" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="7"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="7"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C75A3-A616-49E0-B9DA-F957F109D953}">
+  <dimension ref="A1:G273"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="210">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="409.5">
+      <c r="A4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="186.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="105">
+      <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="75">
+      <c r="A8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="120">
+      <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="120">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="90">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="120">
+      <c r="A12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="90">
+      <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="75">
+      <c r="A15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="90">
+      <c r="A16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="120">
+      <c r="A17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="165">
+      <c r="A19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="255">
+      <c r="A21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1">
+      <c r="A23" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1">
+      <c r="A24" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1">
+      <c r="A25" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="390">
+      <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="105">
+      <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="210">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1">
+      <c r="A31" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="120">
+      <c r="A32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="60">
+      <c r="A33" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="45">
+      <c r="A34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="390">
+      <c r="A35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="105">
+      <c r="A36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="210">
+      <c r="A38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="105">
+      <c r="A39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="195">
+      <c r="A40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="180">
+      <c r="A42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="60">
+      <c r="A43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="135">
+      <c r="A44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="105">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="120">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="345">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1">
+      <c r="B52" s="16"/>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1">
+      <c r="B53" s="16"/>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1">
+      <c r="B54" s="16"/>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1">
+      <c r="A55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="16"/>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1">
+      <c r="A56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="16"/>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1">
+      <c r="B57" s="16"/>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1">
+      <c r="B58" s="16"/>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1">
+      <c r="B59" s="16"/>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1">
+      <c r="B60" s="16"/>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1">
+      <c r="B61" s="16"/>
+    </row>
+    <row r="62" spans="1:3" s="1" customFormat="1">
+      <c r="B62" s="16"/>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1">
+      <c r="B63" s="16"/>
+    </row>
+    <row r="64" spans="1:3" s="1" customFormat="1">
+      <c r="B64" s="16"/>
+    </row>
+    <row r="65" spans="2:2" s="1" customFormat="1">
+      <c r="B65" s="16"/>
+    </row>
+    <row r="66" spans="2:2" s="1" customFormat="1">
+      <c r="B66" s="16"/>
+    </row>
+    <row r="67" spans="2:2" s="1" customFormat="1">
+      <c r="B67" s="16"/>
+    </row>
+    <row r="68" spans="2:2" s="1" customFormat="1">
+      <c r="B68" s="16"/>
+    </row>
+    <row r="69" spans="2:2" s="1" customFormat="1">
+      <c r="B69" s="16"/>
+    </row>
+    <row r="70" spans="2:2" s="1" customFormat="1">
+      <c r="B70" s="16"/>
+    </row>
+    <row r="71" spans="2:2" s="1" customFormat="1">
+      <c r="B71" s="16"/>
+    </row>
+    <row r="72" spans="2:2" s="1" customFormat="1">
+      <c r="B72" s="16"/>
+    </row>
+    <row r="73" spans="2:2" s="1" customFormat="1">
+      <c r="B73" s="16"/>
+    </row>
+    <row r="74" spans="2:2" s="1" customFormat="1">
+      <c r="B74" s="16"/>
+    </row>
+    <row r="75" spans="2:2" s="1" customFormat="1">
+      <c r="B75" s="16"/>
+    </row>
+    <row r="76" spans="2:2" s="1" customFormat="1">
+      <c r="B76" s="16"/>
+    </row>
+    <row r="77" spans="2:2" s="1" customFormat="1">
+      <c r="B77" s="16"/>
+    </row>
+    <row r="78" spans="2:2" s="1" customFormat="1">
+      <c r="B78" s="16"/>
+    </row>
+    <row r="79" spans="2:2" s="1" customFormat="1">
+      <c r="B79" s="16"/>
+    </row>
+    <row r="80" spans="2:2" s="1" customFormat="1">
+      <c r="B80" s="16"/>
+    </row>
+    <row r="81" spans="2:2" s="1" customFormat="1">
+      <c r="B81" s="16"/>
+    </row>
+    <row r="82" spans="2:2" s="1" customFormat="1">
+      <c r="B82" s="16"/>
+    </row>
+    <row r="83" spans="2:2" s="1" customFormat="1">
+      <c r="B83" s="16"/>
+    </row>
+    <row r="84" spans="2:2" s="1" customFormat="1">
+      <c r="B84" s="16"/>
+    </row>
+    <row r="85" spans="2:2" s="1" customFormat="1">
+      <c r="B85" s="16"/>
+    </row>
+    <row r="86" spans="2:2" s="1" customFormat="1">
+      <c r="B86" s="16"/>
+    </row>
+    <row r="87" spans="2:2" s="1" customFormat="1">
+      <c r="B87" s="16"/>
+    </row>
+    <row r="88" spans="2:2" s="1" customFormat="1">
+      <c r="B88" s="16"/>
+    </row>
+    <row r="89" spans="2:2" s="1" customFormat="1">
+      <c r="B89" s="16"/>
+    </row>
+    <row r="90" spans="2:2" s="1" customFormat="1">
+      <c r="B90" s="16"/>
+    </row>
+    <row r="91" spans="2:2" s="1" customFormat="1">
+      <c r="B91" s="16"/>
+    </row>
+    <row r="92" spans="2:2" s="1" customFormat="1">
+      <c r="B92" s="16"/>
+    </row>
+    <row r="93" spans="2:2" s="1" customFormat="1">
+      <c r="B93" s="16"/>
+    </row>
+    <row r="94" spans="2:2" s="1" customFormat="1">
+      <c r="B94" s="16"/>
+    </row>
+    <row r="95" spans="2:2" s="1" customFormat="1">
+      <c r="B95" s="16"/>
+    </row>
+    <row r="96" spans="2:2" s="1" customFormat="1">
+      <c r="B96" s="16"/>
+    </row>
+    <row r="97" spans="2:2" s="1" customFormat="1">
+      <c r="B97" s="16"/>
+    </row>
+    <row r="98" spans="2:2" s="1" customFormat="1">
+      <c r="B98" s="16"/>
+    </row>
+    <row r="99" spans="2:2" s="1" customFormat="1">
+      <c r="B99" s="16"/>
+    </row>
+    <row r="100" spans="2:2" s="1" customFormat="1">
+      <c r="B100" s="16"/>
+    </row>
+    <row r="101" spans="2:2" s="1" customFormat="1">
+      <c r="B101" s="16"/>
+    </row>
+    <row r="102" spans="2:2" s="1" customFormat="1">
+      <c r="B102" s="16"/>
+    </row>
+    <row r="103" spans="2:2" s="1" customFormat="1">
+      <c r="B103" s="16"/>
+    </row>
+    <row r="104" spans="2:2" s="1" customFormat="1">
+      <c r="B104" s="16"/>
+    </row>
+    <row r="105" spans="2:2" s="1" customFormat="1">
+      <c r="B105" s="16"/>
+    </row>
+    <row r="106" spans="2:2" s="1" customFormat="1">
+      <c r="B106" s="16"/>
+    </row>
+    <row r="107" spans="2:2" s="1" customFormat="1">
+      <c r="B107" s="16"/>
+    </row>
+    <row r="108" spans="2:2" s="1" customFormat="1">
+      <c r="B108" s="16"/>
+    </row>
+    <row r="109" spans="2:2" s="1" customFormat="1">
+      <c r="B109" s="16"/>
+    </row>
+    <row r="110" spans="2:2" s="1" customFormat="1">
+      <c r="B110" s="16"/>
+    </row>
+    <row r="111" spans="2:2" s="1" customFormat="1">
+      <c r="B111" s="16"/>
+    </row>
+    <row r="112" spans="2:2" s="1" customFormat="1">
+      <c r="B112" s="16"/>
+    </row>
+    <row r="113" spans="2:2" s="1" customFormat="1">
+      <c r="B113" s="16"/>
+    </row>
+    <row r="114" spans="2:2" s="1" customFormat="1">
+      <c r="B114" s="16"/>
+    </row>
+    <row r="115" spans="2:2" s="1" customFormat="1">
+      <c r="B115" s="16"/>
+    </row>
+    <row r="116" spans="2:2" s="1" customFormat="1">
+      <c r="B116" s="16"/>
+    </row>
+    <row r="117" spans="2:2" s="1" customFormat="1">
+      <c r="B117" s="16"/>
+    </row>
+    <row r="118" spans="2:2" s="1" customFormat="1">
+      <c r="B118" s="16"/>
+    </row>
+    <row r="119" spans="2:2" s="1" customFormat="1">
+      <c r="B119" s="16"/>
+    </row>
+    <row r="120" spans="2:2" s="1" customFormat="1">
+      <c r="B120" s="16"/>
+    </row>
+    <row r="121" spans="2:2" s="1" customFormat="1">
+      <c r="B121" s="16"/>
+    </row>
+    <row r="122" spans="2:2" s="1" customFormat="1">
+      <c r="B122" s="16"/>
+    </row>
+    <row r="123" spans="2:2" s="1" customFormat="1">
+      <c r="B123" s="16"/>
+    </row>
+    <row r="124" spans="2:2" s="1" customFormat="1">
+      <c r="B124" s="16"/>
+    </row>
+    <row r="125" spans="2:2" s="1" customFormat="1">
+      <c r="B125" s="16"/>
+    </row>
+    <row r="126" spans="2:2" s="1" customFormat="1">
+      <c r="B126" s="16"/>
+    </row>
+    <row r="127" spans="2:2" s="1" customFormat="1">
+      <c r="B127" s="16"/>
+    </row>
+    <row r="128" spans="2:2" s="1" customFormat="1">
+      <c r="B128" s="16"/>
+    </row>
+    <row r="129" spans="2:2" s="1" customFormat="1">
+      <c r="B129" s="16"/>
+    </row>
+    <row r="130" spans="2:2" s="1" customFormat="1">
+      <c r="B130" s="16"/>
+    </row>
+    <row r="131" spans="2:2" s="1" customFormat="1">
+      <c r="B131" s="16"/>
+    </row>
+    <row r="132" spans="2:2" s="1" customFormat="1">
+      <c r="B132" s="16"/>
+    </row>
+    <row r="133" spans="2:2" s="1" customFormat="1">
+      <c r="B133" s="16"/>
+    </row>
+    <row r="134" spans="2:2" s="1" customFormat="1">
+      <c r="B134" s="16"/>
+    </row>
+    <row r="135" spans="2:2" s="1" customFormat="1">
+      <c r="B135" s="16"/>
+    </row>
+    <row r="136" spans="2:2" s="1" customFormat="1">
+      <c r="B136" s="16"/>
+    </row>
+    <row r="137" spans="2:2" s="1" customFormat="1">
+      <c r="B137" s="16"/>
+    </row>
+    <row r="138" spans="2:2" s="1" customFormat="1">
+      <c r="B138" s="16"/>
+    </row>
+    <row r="139" spans="2:2" s="1" customFormat="1">
+      <c r="B139" s="16"/>
+    </row>
+    <row r="140" spans="2:2" s="1" customFormat="1">
+      <c r="B140" s="16"/>
+    </row>
+    <row r="141" spans="2:2" s="1" customFormat="1">
+      <c r="B141" s="16"/>
+    </row>
+    <row r="142" spans="2:2" s="1" customFormat="1">
+      <c r="B142" s="16"/>
+    </row>
+    <row r="143" spans="2:2" s="1" customFormat="1">
+      <c r="B143" s="16"/>
+    </row>
+    <row r="144" spans="2:2" s="1" customFormat="1">
+      <c r="B144" s="16"/>
+    </row>
+    <row r="145" spans="2:2" s="1" customFormat="1">
+      <c r="B145" s="16"/>
+    </row>
+    <row r="146" spans="2:2" s="1" customFormat="1">
+      <c r="B146" s="16"/>
+    </row>
+    <row r="147" spans="2:2" s="1" customFormat="1">
+      <c r="B147" s="16"/>
+    </row>
+    <row r="148" spans="2:2" s="1" customFormat="1">
+      <c r="B148" s="16"/>
+    </row>
+    <row r="149" spans="2:2" s="1" customFormat="1">
+      <c r="B149" s="16"/>
+    </row>
+    <row r="150" spans="2:2" s="1" customFormat="1">
+      <c r="B150" s="16"/>
+    </row>
+    <row r="151" spans="2:2" s="1" customFormat="1">
+      <c r="B151" s="16"/>
+    </row>
+    <row r="152" spans="2:2" s="1" customFormat="1">
+      <c r="B152" s="16"/>
+    </row>
+    <row r="153" spans="2:2" s="1" customFormat="1">
+      <c r="B153" s="16"/>
+    </row>
+    <row r="154" spans="2:2" s="1" customFormat="1">
+      <c r="B154" s="16"/>
+    </row>
+    <row r="155" spans="2:2" s="1" customFormat="1">
+      <c r="B155" s="16"/>
+    </row>
+    <row r="156" spans="2:2" s="1" customFormat="1">
+      <c r="B156" s="16"/>
+    </row>
+    <row r="157" spans="2:2" s="1" customFormat="1">
+      <c r="B157" s="16"/>
+    </row>
+    <row r="158" spans="2:2" s="1" customFormat="1">
+      <c r="B158" s="16"/>
+    </row>
+    <row r="159" spans="2:2" s="1" customFormat="1">
+      <c r="B159" s="16"/>
+    </row>
+    <row r="160" spans="2:2" s="1" customFormat="1">
+      <c r="B160" s="16"/>
+    </row>
+    <row r="161" spans="2:2" s="1" customFormat="1">
+      <c r="B161" s="16"/>
+    </row>
+    <row r="162" spans="2:2" s="1" customFormat="1">
+      <c r="B162" s="16"/>
+    </row>
+    <row r="163" spans="2:2" s="1" customFormat="1">
+      <c r="B163" s="16"/>
+    </row>
+    <row r="164" spans="2:2" s="1" customFormat="1">
+      <c r="B164" s="16"/>
+    </row>
+    <row r="165" spans="2:2" s="1" customFormat="1">
+      <c r="B165" s="16"/>
+    </row>
+    <row r="166" spans="2:2" s="1" customFormat="1">
+      <c r="B166" s="16"/>
+    </row>
+    <row r="167" spans="2:2" s="1" customFormat="1">
+      <c r="B167" s="16"/>
+    </row>
+    <row r="168" spans="2:2" s="1" customFormat="1">
+      <c r="B168" s="16"/>
+    </row>
+    <row r="169" spans="2:2" s="1" customFormat="1">
+      <c r="B169" s="16"/>
+    </row>
+    <row r="170" spans="2:2" s="1" customFormat="1">
+      <c r="B170" s="16"/>
+    </row>
+    <row r="171" spans="2:2" s="1" customFormat="1">
+      <c r="B171" s="16"/>
+    </row>
+    <row r="172" spans="2:2" s="1" customFormat="1">
+      <c r="B172" s="16"/>
+    </row>
+    <row r="173" spans="2:2" s="1" customFormat="1">
+      <c r="B173" s="16"/>
+    </row>
+    <row r="174" spans="2:2" s="1" customFormat="1">
+      <c r="B174" s="16"/>
+    </row>
+    <row r="175" spans="2:2" s="1" customFormat="1">
+      <c r="B175" s="16"/>
+    </row>
+    <row r="176" spans="2:2" s="1" customFormat="1">
+      <c r="B176" s="16"/>
+    </row>
+    <row r="177" spans="2:2" s="1" customFormat="1">
+      <c r="B177" s="16"/>
+    </row>
+    <row r="178" spans="2:2" s="1" customFormat="1">
+      <c r="B178" s="16"/>
+    </row>
+    <row r="179" spans="2:2" s="1" customFormat="1">
+      <c r="B179" s="16"/>
+    </row>
+    <row r="180" spans="2:2" s="1" customFormat="1">
+      <c r="B180" s="16"/>
+    </row>
+    <row r="181" spans="2:2" s="1" customFormat="1">
+      <c r="B181" s="16"/>
+    </row>
+    <row r="182" spans="2:2" s="1" customFormat="1">
+      <c r="B182" s="16"/>
+    </row>
+    <row r="183" spans="2:2" s="1" customFormat="1">
+      <c r="B183" s="16"/>
+    </row>
+    <row r="184" spans="2:2" s="1" customFormat="1">
+      <c r="B184" s="16"/>
+    </row>
+    <row r="185" spans="2:2" s="1" customFormat="1">
+      <c r="B185" s="16"/>
+    </row>
+    <row r="186" spans="2:2" s="1" customFormat="1">
+      <c r="B186" s="16"/>
+    </row>
+    <row r="187" spans="2:2" s="1" customFormat="1">
+      <c r="B187" s="16"/>
+    </row>
+    <row r="188" spans="2:2" s="1" customFormat="1">
+      <c r="B188" s="16"/>
+    </row>
+    <row r="189" spans="2:2" s="1" customFormat="1">
+      <c r="B189" s="16"/>
+    </row>
+    <row r="190" spans="2:2" s="1" customFormat="1">
+      <c r="B190" s="16"/>
+    </row>
+    <row r="191" spans="2:2" s="1" customFormat="1">
+      <c r="B191" s="16"/>
+    </row>
+    <row r="192" spans="2:2" s="1" customFormat="1">
+      <c r="B192" s="16"/>
+    </row>
+    <row r="193" spans="2:2" s="1" customFormat="1">
+      <c r="B193" s="16"/>
+    </row>
+    <row r="194" spans="2:2" s="1" customFormat="1">
+      <c r="B194" s="16"/>
+    </row>
+    <row r="195" spans="2:2" s="1" customFormat="1">
+      <c r="B195" s="16"/>
+    </row>
+    <row r="196" spans="2:2" s="1" customFormat="1">
+      <c r="B196" s="16"/>
+    </row>
+    <row r="197" spans="2:2" s="1" customFormat="1">
+      <c r="B197" s="16"/>
+    </row>
+    <row r="198" spans="2:2" s="1" customFormat="1">
+      <c r="B198" s="16"/>
+    </row>
+    <row r="199" spans="2:2" s="1" customFormat="1">
+      <c r="B199" s="16"/>
+    </row>
+    <row r="200" spans="2:2" s="1" customFormat="1">
+      <c r="B200" s="16"/>
+    </row>
+    <row r="201" spans="2:2" s="1" customFormat="1">
+      <c r="B201" s="16"/>
+    </row>
+    <row r="202" spans="2:2" s="1" customFormat="1">
+      <c r="B202" s="16"/>
+    </row>
+    <row r="203" spans="2:2" s="1" customFormat="1">
+      <c r="B203" s="16"/>
+    </row>
+    <row r="204" spans="2:2" s="1" customFormat="1">
+      <c r="B204" s="16"/>
+    </row>
+    <row r="205" spans="2:2" s="1" customFormat="1">
+      <c r="B205" s="16"/>
+    </row>
+    <row r="206" spans="2:2" s="1" customFormat="1">
+      <c r="B206" s="16"/>
+    </row>
+    <row r="207" spans="2:2" s="1" customFormat="1">
+      <c r="B207" s="16"/>
+    </row>
+    <row r="208" spans="2:2" s="1" customFormat="1">
+      <c r="B208" s="16"/>
+    </row>
+    <row r="209" spans="2:2" s="1" customFormat="1">
+      <c r="B209" s="16"/>
+    </row>
+    <row r="210" spans="2:2" s="1" customFormat="1">
+      <c r="B210" s="16"/>
+    </row>
+    <row r="211" spans="2:2" s="1" customFormat="1">
+      <c r="B211" s="16"/>
+    </row>
+    <row r="212" spans="2:2" s="1" customFormat="1">
+      <c r="B212" s="16"/>
+    </row>
+    <row r="213" spans="2:2" s="1" customFormat="1">
+      <c r="B213" s="16"/>
+    </row>
+    <row r="214" spans="2:2" s="1" customFormat="1">
+      <c r="B214" s="16"/>
+    </row>
+    <row r="215" spans="2:2" s="1" customFormat="1">
+      <c r="B215" s="16"/>
+    </row>
+    <row r="216" spans="2:2" s="1" customFormat="1">
+      <c r="B216" s="16"/>
+    </row>
+    <row r="217" spans="2:2" s="1" customFormat="1">
+      <c r="B217" s="16"/>
+    </row>
+    <row r="218" spans="2:2" s="1" customFormat="1">
+      <c r="B218" s="16"/>
+    </row>
+    <row r="219" spans="2:2" s="1" customFormat="1">
+      <c r="B219" s="16"/>
+    </row>
+    <row r="220" spans="2:2" s="1" customFormat="1">
+      <c r="B220" s="16"/>
+    </row>
+    <row r="221" spans="2:2" s="1" customFormat="1">
+      <c r="B221" s="16"/>
+    </row>
+    <row r="222" spans="2:2" s="1" customFormat="1">
+      <c r="B222" s="16"/>
+    </row>
+    <row r="223" spans="2:2" s="1" customFormat="1">
+      <c r="B223" s="16"/>
+    </row>
+    <row r="224" spans="2:2" s="1" customFormat="1">
+      <c r="B224" s="16"/>
+    </row>
+    <row r="225" spans="2:2" s="1" customFormat="1">
+      <c r="B225" s="16"/>
+    </row>
+    <row r="226" spans="2:2" s="1" customFormat="1">
+      <c r="B226" s="16"/>
+    </row>
+    <row r="227" spans="2:2" s="1" customFormat="1">
+      <c r="B227" s="16"/>
+    </row>
+    <row r="228" spans="2:2" s="1" customFormat="1">
+      <c r="B228" s="16"/>
+    </row>
+    <row r="229" spans="2:2" s="1" customFormat="1">
+      <c r="B229" s="16"/>
+    </row>
+    <row r="230" spans="2:2" s="1" customFormat="1">
+      <c r="B230" s="16"/>
+    </row>
+    <row r="231" spans="2:2" s="1" customFormat="1">
+      <c r="B231" s="16"/>
+    </row>
+    <row r="232" spans="2:2" s="1" customFormat="1">
+      <c r="B232" s="16"/>
+    </row>
+    <row r="233" spans="2:2" s="1" customFormat="1">
+      <c r="B233" s="16"/>
+    </row>
+    <row r="234" spans="2:2" s="1" customFormat="1">
+      <c r="B234" s="16"/>
+    </row>
+    <row r="235" spans="2:2" s="1" customFormat="1">
+      <c r="B235" s="16"/>
+    </row>
+    <row r="236" spans="2:2" s="1" customFormat="1">
+      <c r="B236" s="16"/>
+    </row>
+    <row r="237" spans="2:2" s="1" customFormat="1">
+      <c r="B237" s="16"/>
+    </row>
+    <row r="238" spans="2:2" s="1" customFormat="1">
+      <c r="B238" s="16"/>
+    </row>
+    <row r="239" spans="2:2" s="1" customFormat="1">
+      <c r="B239" s="16"/>
+    </row>
+    <row r="240" spans="2:2" s="1" customFormat="1">
+      <c r="B240" s="16"/>
+    </row>
+    <row r="241" spans="2:2" s="1" customFormat="1">
+      <c r="B241" s="16"/>
+    </row>
+    <row r="242" spans="2:2" s="1" customFormat="1">
+      <c r="B242" s="16"/>
+    </row>
+    <row r="243" spans="2:2" s="1" customFormat="1">
+      <c r="B243" s="16"/>
+    </row>
+    <row r="244" spans="2:2" s="1" customFormat="1">
+      <c r="B244" s="16"/>
+    </row>
+    <row r="245" spans="2:2" s="1" customFormat="1">
+      <c r="B245" s="16"/>
+    </row>
+    <row r="246" spans="2:2" s="1" customFormat="1">
+      <c r="B246" s="16"/>
+    </row>
+    <row r="247" spans="2:2" s="1" customFormat="1">
+      <c r="B247" s="16"/>
+    </row>
+    <row r="248" spans="2:2" s="1" customFormat="1">
+      <c r="B248" s="16"/>
+    </row>
+    <row r="249" spans="2:2" s="1" customFormat="1">
+      <c r="B249" s="16"/>
+    </row>
+    <row r="250" spans="2:2" s="1" customFormat="1">
+      <c r="B250" s="16"/>
+    </row>
+    <row r="251" spans="2:2" s="1" customFormat="1">
+      <c r="B251" s="16"/>
+    </row>
+    <row r="252" spans="2:2" s="1" customFormat="1">
+      <c r="B252" s="16"/>
+    </row>
+    <row r="253" spans="2:2" s="1" customFormat="1">
+      <c r="B253" s="16"/>
+    </row>
+    <row r="254" spans="2:2" s="1" customFormat="1">
+      <c r="B254" s="16"/>
+    </row>
+    <row r="255" spans="2:2" s="1" customFormat="1">
+      <c r="B255" s="16"/>
+    </row>
+    <row r="256" spans="2:2" s="1" customFormat="1">
+      <c r="B256" s="16"/>
+    </row>
+    <row r="257" spans="1:3" s="1" customFormat="1">
+      <c r="B257" s="16"/>
+    </row>
+    <row r="258" spans="1:3" s="1" customFormat="1">
+      <c r="B258" s="16"/>
+    </row>
+    <row r="259" spans="1:3" s="1" customFormat="1">
+      <c r="B259" s="16"/>
+    </row>
+    <row r="260" spans="1:3" s="1" customFormat="1">
+      <c r="B260" s="16"/>
+    </row>
+    <row r="261" spans="1:3" s="1" customFormat="1">
+      <c r="B261" s="16"/>
+    </row>
+    <row r="262" spans="1:3" s="1" customFormat="1">
+      <c r="B262" s="16"/>
+    </row>
+    <row r="263" spans="1:3" s="1" customFormat="1">
+      <c r="B263" s="16"/>
+    </row>
+    <row r="264" spans="1:3" s="1" customFormat="1">
+      <c r="B264" s="16"/>
+    </row>
+    <row r="265" spans="1:3" s="1" customFormat="1">
+      <c r="B265" s="16"/>
+    </row>
+    <row r="266" spans="1:3" s="1" customFormat="1">
+      <c r="B266" s="16"/>
+    </row>
+    <row r="267" spans="1:3" s="1" customFormat="1">
+      <c r="B267" s="16"/>
+    </row>
+    <row r="268" spans="1:3" s="1" customFormat="1">
+      <c r="B268" s="16"/>
+    </row>
+    <row r="269" spans="1:3" s="1" customFormat="1">
+      <c r="B269" s="16"/>
+    </row>
+    <row r="270" spans="1:3" s="1" customFormat="1">
+      <c r="B270" s="16"/>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1"/>
+      <c r="B271" s="16"/>
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/HistoriasUsuarios.xlsx
+++ b/HistoriasUsuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Documents\Personal\Proyectos\PlataformaSalud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8D8EEC-A1E0-40D2-81F3-9950B84EC484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16208309-751A-476B-80E4-1D2E969CAC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{1CF48710-ECC5-4A3A-8413-C56A2552069A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="196">
   <si>
     <t>Historias de usuarios</t>
   </si>
@@ -1982,6 +1982,18 @@
   </si>
   <si>
     <t>El backend recibe por metodo put  el json con los datos de la tabla prestadorservicios, en el endpoint http://localhost:8080/api/ips, una vez recibido el json se debe validar que ningun campo este en blanco, si cumple con esta validacion se actualizara o realizara el update en la tabla y se dara respuesta al front mediante un json informando el resultado de la operacion, si no cumple con la validacion debe informar mediante un json la razon por la cual no se realizo la instruccion.</t>
+  </si>
+  <si>
+    <t>Creacion de tipos de documentos</t>
+  </si>
+  <si>
+    <t>idrepleg
+docrepleg
+pnomrepleg
+snomrepleg
+paperepleg
+saperepleg
+tipdoc_fk</t>
   </si>
 </sst>
 </file>
@@ -3382,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C75A3-A616-49E0-B9DA-F957F109D953}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3453,421 +3465,427 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="105">
       <c r="A5" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="186.75" customHeight="1">
+      <c r="C5" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="186.75" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="105">
-      <c r="A7" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="75">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="105">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="120">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="120">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="90">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="120">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="120">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="90">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="90">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="120">
       <c r="A13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="90">
       <c r="A14" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="75">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="90">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="120">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="90">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="90">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="120">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="165">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="90">
       <c r="A19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="90">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="165">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="255">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="90">
       <c r="A21" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="90">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="255">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1">
-      <c r="A23" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1">
       <c r="A24" s="18" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1">
       <c r="A25" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="18"/>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="390">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" s="1" customFormat="1">
+      <c r="A26" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="390">
+      <c r="A27" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="90">
-      <c r="A27" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="105">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="90">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="90">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="105">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="210">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="90">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="210">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1">
-      <c r="A31" s="18" t="s">
+    <row r="32" spans="1:3" s="1" customFormat="1">
+      <c r="A32" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="120">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="120">
+      <c r="A33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="60">
-      <c r="A33" s="18" t="s">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="60">
+      <c r="A34" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="45">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="45">
+      <c r="A35" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="390">
-      <c r="A35" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="105">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="390">
       <c r="A36" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="90">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="105">
       <c r="A37" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="210">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="90">
       <c r="A38" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="105">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="210">
       <c r="A39" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="195">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="105">
       <c r="A40" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="90">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="195">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="180">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="90">
       <c r="A42" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="60">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="180">
       <c r="A43" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="135">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="60">
       <c r="A44" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="90">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="135">
       <c r="A45" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="105">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="90">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="90">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="105">
       <c r="A47" s="1" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="120">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="90">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="90">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="120">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" ht="345">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="90">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="90">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="345">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="90">
+      <c r="A52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1">
-      <c r="B52" s="16"/>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1">
       <c r="B53" s="16"/>
@@ -3876,18 +3894,18 @@
       <c r="B54" s="16"/>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1">
-      <c r="A55" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="B55" s="16"/>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1">
       <c r="A56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="16"/>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1">
+      <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="16"/>
-    </row>
-    <row r="57" spans="1:3" s="1" customFormat="1">
       <c r="B57" s="16"/>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1">
@@ -4529,16 +4547,19 @@
     <row r="270" spans="1:3" s="1" customFormat="1">
       <c r="B270" s="16"/>
     </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="1"/>
+    <row r="271" spans="1:3" s="1" customFormat="1">
       <c r="B271" s="16"/>
-      <c r="C271" s="1"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1"/>
+      <c r="B272" s="16"/>
+      <c r="C272" s="1"/>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/HistoriasUsuarios.xlsx
+++ b/HistoriasUsuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Documents\Personal\Proyectos\PlataformaSalud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA720855-D7E4-44BE-A142-B186AB615DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D64B669-F891-4736-B5A1-84A14738DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2512,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,40 +2780,44 @@
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="390" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
         <v>58</v>
       </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
         <v>60</v>
       </c>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
